--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/54_Kütahya_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/54_Kütahya_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07126973-1177-4DEA-94F8-C2F887E2550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E9FD3B-46EE-428F-B823-BCD529D8B31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{0ED1B83D-CD55-4229-90F7-3FC5B157D8C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{65147FA7-351B-4E62-B907-09D5CDB5A415}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{05ABC72B-5FE1-4F9B-AD2B-7C28A01A2ABF}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4FF33A3B-7C03-428A-BC48-9B95F7412516}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{69473115-A08C-4789-B8C3-C18742B2937E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{588C8354-7D1D-4BBB-A819-C14833E2C885}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{18B81EA7-094E-4D0F-A043-FEE2C71B8324}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{6DD9BFD5-17C6-490F-920F-3311369F8342}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{535A199A-4EEC-461D-B88F-94FE6749898E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{68990A3F-53BA-47F0-8692-3367837DB047}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{664DAED9-2F0D-4954-9048-E0C89F57A3C5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E39A829F-0723-40F4-81BB-77C85635793B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0C588445-B777-4084-B6E8-15861B730912}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{94820CF2-B303-460F-858F-EB35866EB762}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{28E53707-1EDB-4900-B349-A2F369304826}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B871749D-AE4A-4040-BB24-14FB226F2546}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE450D2-5196-4511-89F4-3E637BAB086C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B2686A-79A5-454E-8D1B-2B906712EBB5}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2603,18 +2603,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3675E561-7A1C-4B9F-9D15-77389886F072}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6FE12CC-160E-42B0-B348-9EC083DECD8F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{731FAE2B-E04C-46FA-A1AC-8BEEDD14A09A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3067631-7C29-4D12-90F6-22DC52F90F52}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BEF57244-72C6-43FC-8636-F476CF6D591B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D70C26AA-2FEA-4913-89FA-C79E1BC6844A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCFC9420-9DCA-48CE-BF9D-58F332BD2717}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07A27EF6-3A84-4212-A2EC-F9A6C4E6B371}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36930C24-67DC-404F-B9A5-889B9A1CFB5D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{045DF96E-D20A-4CFD-95C8-AED7016DB9EC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71D9D395-0456-424E-959A-6CD2960AC2E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB2E2C09-7974-4EA1-85FD-15C389A7074B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86F6F5C8-7619-4FA0-94CA-7CDE1EDC699D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC9E4E07-45FC-4580-BC16-34D3664BB96C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D0A7468-759C-43B8-A0BB-2C63A0874911}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8103844-9AEF-4BB1-A97D-B47474FEB4CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D10C196-60B1-467F-90E1-20224D910197}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{497433C3-BBCF-4287-9554-2858F3DCFF5E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{430D6D85-6340-4E8C-ACFC-A75B5D4411BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74A62643-3E32-4DF2-9C47-C7A83ED1A2CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{544EA2FC-B1CB-4F5B-B8CC-935CC66BB5EF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8A3BAAD-1B95-4AAE-811B-8F4D56B6646F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70A040BE-26B3-44D3-AD3F-420171A773B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F42D1BC-A74A-4FD0-ADBA-AC1D20E024C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2627,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE4F3F0-9137-4ADD-9709-00021DF8A8B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BC60EA-A540-4F7E-A81D-EA1BDBFAE01D}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -3885,18 +3885,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15507BB3-7D83-4926-89FF-449A208F47D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D79C087-1F80-40EF-BF07-CE5CF1E929D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{072012F7-3459-4682-811F-E2FBEFFC3386}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D0C2F6B-C87F-41FC-8779-37F74F5F00B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03387BFF-9368-484F-BC6A-8133BA554C3E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{593A626B-038F-4FD9-AF02-921B1097F861}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F227908C-2DAA-4C2B-BEF2-84A94571C613}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6443E887-F54A-4B39-9C58-6F14D368134A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62210007-68C4-43E5-B66E-8DE2EEA79C80}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6EDA4598-683E-4F22-8F4E-10DD93A5E327}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7FE301B-C9E1-4993-8A68-4CFD7A54D490}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2627C4BC-83BD-4F9B-8F06-0449C3346AD7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7CAF7B2-D6E7-4259-B8BC-1E22B1F8A20D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48EDB11C-715C-4593-AEEE-F7352A2BDF47}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{943C03B2-83DD-4F25-93AF-C2C8D0931743}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C9DCB721-E35C-4A62-A4C2-066459539DED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66745BCC-960A-4D6F-9223-56039E4CEE84}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7B16C88C-5CD1-4AB0-83AF-8707B1DC37CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3FFACA4-127B-436A-A41B-3935DC581EBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B76F06AD-F452-44CC-A098-81431775C3BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DEF65798-49ED-4420-B119-D76AEB820E4F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FBFF51DE-8BEE-401B-B988-0BE7A09AAFD2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6F0A39D-0770-403D-B8AF-AA1B3D8FCCA9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFF57FEA-C77E-426C-B7EA-67B53AB3A095}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3909,7 +3909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92CA45D-2FCC-4BEB-AA55-131ECFDB12B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B983CFC0-E7EB-4CD3-82B6-0EB0DA5A12E3}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -5167,18 +5167,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{642B454A-230B-4803-A7D1-38E009F55019}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9391017-600D-4962-B616-EA31E55DC757}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D2E6801-CDDF-46B7-A291-BCA11A88133C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9AE019F1-B4D8-40C3-BFF0-6F5CE0DEE91E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0E9E1AA-3DE4-4637-813F-ACFB6D8624E6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F937F34-0996-44B2-B825-D07AF181D613}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70B90990-2882-4C29-A52B-7023A4431E13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90BA814B-A7BA-405C-BF8C-6C084CF8C23C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF476934-6708-4210-A0BB-F9AD8EA6AF03}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB58D3DD-98E9-4B93-A46A-BA5A2001E66E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B51CBD3-D7C1-4490-AC7C-6344F3155FC5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{919CD0C6-0F46-4B8B-BD92-B847CB5638E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{522F9982-1569-4270-A8BB-CFE3E88D4C81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F4C3944-040E-48DE-8901-9A989AE674AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99F5E4CB-F8F8-460E-81A1-9AB87AAB2D07}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A742840-92E1-41F5-BC7B-47C8D3E41C5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7019EA34-C6AE-4A64-BF01-F539612CA047}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50C0ECBC-1550-4443-8191-8319687A293B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62B5D7E8-EC5E-469F-BCBF-2387B72CD0AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84604F49-3C50-4ADA-B80F-E3C916B377DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1856664A-B45F-41BF-A335-63D3E5721BCC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BE0D4C8E-32CC-491E-A6D8-5F713D91C1D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{733A2383-D278-47B6-9CF4-37EFC6656E0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F5E4C2E-F900-458C-A102-F577901068EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5191,7 +5191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62D44CA-ED8E-429A-BC99-3A77D4E343EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3333AC-727E-4E6A-A73A-9887E1D1AD5C}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -6441,18 +6441,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8984325F-9060-4333-B11F-F5ACDE13CB24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C4976A2-CA9A-4C74-8E15-48142BB4DE8F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA98DB03-4362-43B0-81E4-52E43D995942}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1853B42C-8762-4A60-B766-9696DDE6614C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71ACF0D6-58B8-4A36-9CED-8F8D0698CB95}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB774918-06E1-482E-9610-C465040883A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EE2E25B-1317-4BCE-B8E3-7165D8C3A309}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C64244B-B0E7-4171-9758-1382336D9CE6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD4B8F54-3350-4E3C-8E9B-08ED697EE36F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4EFE76AE-26CF-496B-AB72-2080F142597E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA782030-0186-4B5C-900E-D533341F14A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21D415BD-DA99-4BB6-A8CA-1F2790FFC789}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D838BFC4-5496-428C-8111-115255406033}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64C195E8-2140-464B-894D-136906F0585E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A5828D4-BD9F-43C7-AFFF-219ED46D207D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0A65480-5C73-4BFD-B654-765EDF5F0BBE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB5FE68B-C6E4-4B18-92B0-4EE6BF1E5CB2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9A82DF5-EF7B-42EC-88F9-18756DE19586}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E76A37C-BBC0-471B-96F1-BBA64B70D8B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10646144-C671-464F-A848-B9697C04E54E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD93E1D9-E864-43FE-8042-D3EFE289E2EB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{82915533-AF71-4782-808D-5BE2104D77E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CAF5E70F-0D43-4681-92E7-4C47BE072089}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A9E30EC-C7F7-4A21-8D33-50B636E53EC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6465,7 +6465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855C583B-F1EA-4F01-9E6A-3312DE1D40EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC5682-3BF8-42CB-B1B9-3D38CE2D4848}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7740,18 +7740,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{980E20CC-A872-4085-9F6A-023BDF907362}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD18B924-BCA3-43CB-B34D-A6C447B3CE43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DAB771B2-3CE5-4434-AF80-5EF81785304C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C4DAAC70-7543-4659-ADF4-6B47BAC9B2A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{823B386A-84EB-4DDD-B6CB-1A49831014EC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E27A3B5-236C-4E04-91FA-51DCF1B55631}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3C85771-8CB4-407A-84F7-2A9178386B5B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBE57D7C-543D-4F2C-AE8A-B2CCAEE13CCA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E77A6282-1CF7-4477-AF2D-BAB1A2D6EC65}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AAE1E6D1-CBA8-465C-B8EF-441831990961}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C161F76-E469-479E-BC8E-7CE3D5CE375C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9F441BE-57EC-4C25-9011-414A2E666D45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F49CF1D-6DE5-469D-96AD-256C4E6105C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95BF3919-EB36-4EBC-ADBC-4FC94510ACB6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{959BC9A0-1733-4EC0-B5D0-DD25A65BECF9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3275BB97-70A8-4A8C-9EC7-EB10B50AD9CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C08E6ED-611B-458F-847B-D6E98CCEC8C4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F60531B-AF2D-490E-95A9-95ECFD2D2598}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73E17709-9428-4C5D-8C9B-0D829218D7E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F30FB18A-5626-465C-86EC-809257AD654F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD814DFB-5124-47ED-AE49-CAE56F98D403}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A470EDDD-0713-4B2E-A279-8218D60C065E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A72A6EB6-3163-420F-8229-3425AEE75270}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5FA0E3C6-8CDC-4E71-9EE0-5C48EDA195BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7764,7 +7764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D18A56C-AE5B-483D-A90C-A99CECFBA2DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E496B-F19E-4791-A690-2C3E7E36A3AE}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9039,18 +9039,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5FC1419-5AC4-45BE-A1AA-707D2A03BC32}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A01C7613-6141-440A-84D7-1B12AC232135}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52F97F7D-D1BF-4950-AADC-04BF999EDB45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F3602E9-CC71-4424-BF6C-4532C8F96E51}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75E5E77F-C871-41E1-8AC5-39A681D63A38}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{86AA6227-0C9A-4A87-942F-4AD2D23DC994}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA5BC889-22AB-4274-BEC6-FD20078AB340}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D19C802-D4E8-4F9F-A8B0-3C2BDF04FA1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FFA6BE2-0664-47D3-97D8-971E542A20AA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{68A29B68-84E2-4919-BBF8-BD3CAACC7E57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09EBA2BE-D814-4FB0-8EBD-4FE25BEF68E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{025D7043-10D7-4ADE-8DCE-8F7A944E7F68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{721609BB-E072-4D0C-A3C0-D09333AA59EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC9D94BC-346D-418E-A2FA-DC2654B34E94}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF638095-7EC6-4067-B937-25A6FCBB55E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{655844B7-C42E-4C71-89CD-F007EE9F4D1A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84D39160-DC50-4123-BD8A-88A4F5AAA88A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17329C1F-4170-4E7E-9C81-C7C66B8C2DB6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6829F176-6CB6-4178-BFBA-7A348F838C86}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C852E75F-3DEA-47EC-89BF-D76266FBC594}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D486E72-9ADD-471D-A5EF-E2BCACCC3CEC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D357D088-9362-4D2B-B16B-A28CFDD5A29B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCBD7932-191A-4534-9183-8033086193BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB92BBB8-65C2-42D1-9C5B-97EFCB44EE07}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9063,7 +9063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6A8A6D-25D3-463B-AD3E-A9D3F3FD08BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4642AA3E-FC2F-475C-84C9-D80FD0215B00}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -10339,18 +10339,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E198E89-9CDC-4EB7-98EA-2CD9F970C280}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E83FAB3E-ACC6-47B3-9E8E-2CB98B332CB1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EC2AF17-8B1B-491A-A857-411ABFA0604D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{699B64E8-A24D-4422-903E-FB5E4ECD7EED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4369758-B2B1-43C0-8D68-0CCCBF17E84D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{75969DCB-328D-4C1B-83CE-EF1EB9C5B92E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DEF6D60-E161-4979-81ED-8CE668A0C152}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB03B02C-5991-41CE-8E40-5C642196B8C0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65AD96DD-45F8-46AC-A9B8-6D3FF6CB8797}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7E93A612-BBFE-4FA3-9EC6-84BAE978500A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D688925-68EF-4161-BBAD-A3380F331F3E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E63BFB0A-9589-4D91-B480-F98466F1AE8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60D31EDD-A1FE-4E6A-829B-17A2BA92DB18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E2BB8C4-753F-46AE-8508-160E57DFD867}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{75A2A6E7-4700-47C1-BA9E-D0F65ADC7149}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6679567C-DF9B-4DC4-9DC0-946DAC765936}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{383C18D5-7B1E-4EE5-B73E-88378CB98A22}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1C7A6388-2784-4005-9FF7-B8A9D737F2C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C961D353-5E81-43AD-A99F-92853A51130D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75EDC18A-D6DC-4076-8984-3C1C879D23CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F13534E-E546-49EE-9ED7-BD08AAAE0DC4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CE512279-E097-463D-A29F-D0B678E1FCE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FA4F161-4137-4AA8-926A-06A6958A99F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2697813-040C-42FD-85EE-4B969FFFD8AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10363,7 +10363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4DD5D1-7B41-4320-8A80-84C33380CE96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2F76E0-0D28-4C65-8BF7-58CB78282C07}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -11639,18 +11639,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFAEC3D6-FB48-4D4F-808E-E9419222D7AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CD65D49-1EAC-4553-9266-5C505920A011}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29832D90-6FF5-41A1-8202-DA431BBBC0CA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1675ABA3-318F-4A1E-A314-ACB8796A08A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6A5AE68-CCB3-415A-B20F-C77C25F85371}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F6197CE-51D7-4C5A-AB7E-99C6C76A6CC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F9D2660-9FA1-4BA7-9FDD-25E267CEFB14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D33B6277-1B4A-4895-9BAB-A8B1CD65CAD7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{761D1F7A-D77B-48DF-853A-DC6A7D9BB39A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{78A10D4D-7D43-4B51-8288-5FAE9C13FF98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{073E15C7-2483-4297-B6A4-CDD6CD93D4AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90E83925-3F5F-4CBF-A30C-B2A0CB2E6763}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B008A74C-27E1-4EF0-A653-1BA5CA1334A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDE967E5-2923-4C82-8394-C82B5C8183D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16B84F83-B251-46DD-8CAD-E56665234038}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{992A9BB2-0B66-4242-AE9D-CBECBDC0E66A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8FF86B5-66C4-4385-B46D-674B6504FF90}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8BB2BA40-F7A8-4E0B-B177-892C3A3B3F1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A22E7EEB-C066-47CE-B5D7-034A7A14ED5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBFF5A36-EA62-4F9F-A980-9B33F7EE1891}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{729BE366-CE35-479B-BF32-847AF23843D4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{30CA9192-A71E-4B0B-9F2A-09016DEAB09E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80DE8A78-304F-499D-B8DD-A558E4EB3004}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{888DCD9E-99ED-4EC9-9664-AC151D1CD410}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11663,7 +11663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B21D4-F3C6-4C21-9D17-B476CC689553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A59C83-F2C6-44E4-A9F4-CC476F1A4213}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -12931,18 +12931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C96B6BE3-7582-4F71-93A9-6F1033638A0B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F12302E-ED48-493A-A720-B72D814F088B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EEDA781-3281-4C4B-9F77-3B46ABFD2A2C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A390E36-F946-4901-8D6D-496238C032D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98BC7320-DDF5-4F56-B281-832F8B3FAAA9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CD5555E8-16EE-49B5-99F9-4324B4D81856}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD9A6783-E3BA-4D75-83B9-E3A2E3284892}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A43276F3-9041-4ECE-A44A-8486F335145F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31E2A213-0399-4A74-9FE5-3764D834CDE0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{48B7C51D-D619-4BD6-86B9-20E763DF412A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7ACCAB44-9C9A-4683-81DF-43193AA6C0EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B9711B5-6059-4F1E-AF79-849F380849EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B399F25-665B-4B14-A07F-8DC8BA9681BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20956171-1DB5-4B62-8548-B03E77842C5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70FCD435-C290-43DE-AFD3-3F347DA58AFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25738D20-8FB1-47D9-B6D5-F7B5BCA5842E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CA329F7-452B-4DA3-9D1C-263214F993E3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B271FEFE-BF91-41A8-A97C-C43F1F9435A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EFAA768-D180-4EA8-858B-73F795C4C36A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3447EC18-DB35-4BE3-AD96-DDE5B74FFB43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3555D452-66AD-4D23-A42B-68AA6C039350}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4B038DE5-7903-456E-B5CA-19A2D275040E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6325A748-F5D4-4FF3-AAE1-9DB20204883E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCCB216C-6AEB-4FAC-9445-8F2671FBE3E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12955,7 +12955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516DF4E5-E386-4D58-B570-14B0CE2D9A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64327153-850B-4A4B-A53D-4E66DD6AC59E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -14213,18 +14213,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FF8113E-CA12-47A7-B582-5F4B602023F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{022786DB-BA2F-46F4-BFD0-E3F113EAF393}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{360CB78D-C144-43EB-8BFD-11E0C9CB103E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1FD41A12-FBD8-4994-BC67-A9093BBC13A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D99535F0-8E4B-48CF-B4CA-7ACAD0601358}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9387CC6A-0BE7-4979-ADB9-226B56BF8F39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A41EF66A-9452-469B-9DE1-AB77FA6B131E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDB6AF73-E63E-4338-B31A-039971D2380C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32A33067-654A-447D-92CA-5FF73A030E81}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B3D95076-4C43-4C11-895C-AC2F96D5D56D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E59FC71-249F-4989-84E7-CA3E7B540E4D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0866828B-6F09-4124-BDF5-A0674CD321FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EA725AC-FA28-48D1-8E82-BF83D68BBF8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14279450-0E86-40CD-84E1-373C145B266C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2B9CBB7-C611-4CDC-BDA9-79F1D28B21EA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96526E08-5CD1-47B1-A640-9C12752548AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4665B1FA-AFC8-4845-AA1C-7732A0D9C1FE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FEB95FF7-DD38-4CBD-95AE-D9263CC45A43}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3773EAFA-41C8-459E-BCD0-609CFABFF8D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36767264-E5E8-45FA-A936-7211A78A7450}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94224FD5-2098-47C6-AA2E-8FB362A1081C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{010B40BD-958D-430D-9C49-45CE8A40952B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{552346D7-A5EA-4D86-81E5-1649ED9BB698}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51C02CDC-C20D-460A-9D0E-2C0D764D2163}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14237,7 +14237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D2F7D2-E683-4DF9-8941-1FF2D75869F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB4BDFF-AB55-4CA7-AD0D-5A16A644D507}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -15495,18 +15495,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10C62554-3281-47A6-A45C-E1AA56B961F0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B08A34EF-9AB7-411D-8D1E-35A52F7BE79B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{522C8A6B-EFE1-46BF-8426-B2F57155A838}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CF73F3E-60C4-42E1-A3AB-FE684065B8FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FC488D7-8F3A-4D54-BCF5-755CD3EAD8F0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F44CFEA9-97CC-4F33-AED7-B2249771F041}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF2DD0A9-E240-4C72-BB44-F0771CCF7C84}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C553A586-EFFA-4CDD-BF90-3F01AB779377}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D888C7E-3D54-4A21-BE49-8465FD8E9EA3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E64C6C55-B6EA-45F9-982D-12F18A84A580}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F022C26-E78B-4DF6-A0DD-40E3133C1AFE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07D74B6A-BFE8-446B-81D1-95E764FE8A28}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA733BBD-C328-40BE-A441-1DD4BD1F32E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A0A84BF-FDF4-4455-8551-FCA33656C42F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A7A463C-59FB-48ED-850A-EA717C7E0C52}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FF291A22-5DF2-43E0-A963-9B646C9CD3B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C4E6EE2-9F69-41B8-A001-81AAF74A6604}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7FB0C34B-D858-4595-8990-32C43AD43512}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFB52ADD-0451-4699-A5D8-3B43FA8881BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7990D8D6-46EC-41C9-8F2C-F5F66800EFA1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{485FE288-CDBC-4502-8DAA-B8ACD62C1965}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{700E6071-44A5-44EE-B342-77D5389CB53D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C07A3C1-0C91-4634-A06B-00345DF5AFC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C9820FB-0691-480D-82B0-3CC1CFD9CF7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15519,7 +15519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5A198-CAC4-40B2-9688-94CCE4CE67E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E65D0C-1096-4D9F-A160-2374BFAAB5E8}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -16779,18 +16779,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8389361D-4EE4-4E70-9C0C-D1FC38D08AA2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD7ACE31-D0CE-4445-8072-1B1790BEA2E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B7B18316-CEE0-4C99-AF39-2A5C39EC68B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99DC2F22-4F26-4A51-B403-2184F213556B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD98B765-2A54-4C7A-8E2B-D00C314738D1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{178A9138-B720-4F77-AB0C-60279A97A3DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{839D0221-2019-4BAB-9134-64B882BD62AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCEB9FDE-5009-4812-9A63-D6CE571D0178}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{082C39A8-936A-4CB8-9695-1A1646C2B2DB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{75F8C5A9-5105-4416-A53A-946CB6D8DBD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAB49B50-40C7-4E0F-864B-519BD4FD5698}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6758B75A-9577-4715-A797-46CAAFBB9F05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8E6948B-C5D5-4ABE-85D1-778E87BB9EA7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0AE2812-A8B7-4ECE-BCBE-C4E8E1B74602}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1360593-78A3-4315-A426-689CA9E35B43}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99F374E6-A2A8-4560-8E1C-2BBA2DD0CD91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87127A16-DC88-45C2-A8CA-5E98A60825DD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A0D2C815-F13E-48B8-A877-B5C339FC3C94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7400925B-A318-46E5-B07D-57EDE212ADB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F29C2E3-9DC5-48D3-B2DC-72719412FCFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D814461-98A5-43DE-96DB-A0520F0AEA93}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{252AD96B-E6DB-49DB-9850-D16904062D30}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A19A29B-BBBE-4700-BCD9-6D63B31E2BFF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FCAF921-3028-4835-BED2-DEB7CDDF8D36}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
